--- a/microsetta_admin/tests/data/order_addresses_sample.xlsx
+++ b/microsetta_admin/tests/data/order_addresses_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandabirmingham/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\colts661\cmi_microsetta\microsetta-admin\microsetta_admin\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{312D1BE4-21CC-9F4B-997D-DEED0DD77691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38608D6-ED67-410D-92D7-E3E6132EDEC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1460" windowWidth="18860" windowHeight="10840" xr2:uid="{21EB68CF-3833-6247-8209-B8FB68D967C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="7310" xr2:uid="{21EB68CF-3833-6247-8209-B8FB68D967C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>firstName</t>
   </si>
@@ -115,6 +106,27 @@
   </si>
   <si>
     <t>ca</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>38 Diagonal St</t>
+  </si>
+  <si>
+    <t>261-0022</t>
+  </si>
+  <si>
+    <t>Chiba</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>jp</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570455D5-5EFE-9940-8290-3714F6500088}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -535,7 +547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -562,6 +574,32 @@
       </c>
       <c r="J3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
